--- a/Информация о проходах/Павловский Андрей Павлович.xlsx
+++ b/Информация о проходах/Павловский Андрей Павлович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-31 14:23:00</t>
+          <t>2024-06-10 07:39:25</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-31 14:33:06</t>
+          <t>2024-06-10 09:02:44</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-31 15:33:34</t>
+          <t>2024-06-10 09:14:33</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-31 15:43:48</t>
+          <t>2024-06-10 10:18:55</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,2577 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-31 16:58:18</t>
+          <t>2024-06-10 10:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-10 11:54:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-10 12:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-10 15:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-10 15:12:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-11 07:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-06-11 11:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-06-11 15:43:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-11 15:48:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-06-11 15:56:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:35:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:37:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:38:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:55:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-06-14 07:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-06-14 16:54:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-17 07:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-17 09:02:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-17 09:10:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-06-17 15:59:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-06-17 16:05:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-06-17 16:59:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-06-18 07:58:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:05:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:14:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:47:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-06-19 08:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-06-19 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-06-19 10:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-06-19 10:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-06-19 14:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-06-19 14:48:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-06-19 16:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-06-20 07:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-06-20 16:55:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-06-21 07:42:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-06-21 13:56:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-06-21 15:55:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-06-21 16:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-06-22 06:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-06-22 16:57:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-06-24 07:41:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-06-24 15:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-06-24 16:01:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-06-24 16:58:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-06-25 08:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-06-25 16:59:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-06-26 08:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-06-26 16:58:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-06-27 07:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-06-27 14:48:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-06-27 14:54:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-06-27 16:57:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-06-28 08:01:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-06-28 17:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:54:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-07-01 09:16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-07-01 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:34:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:41:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-07-01 16:56:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-07-02 07:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-07-02 09:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Павловский Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Наладчик технологического оборудования</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-07-03 07:52:19</t>
         </is>
       </c>
     </row>
